--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_17.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_17.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rika Ishii</t>
+          <t>Chiyo Takahashi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
